--- a/PythonRevolution/AbilityInfo.xlsx
+++ b/PythonRevolution/AbilityInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="794">
   <si>
     <t>Name</t>
   </si>
@@ -18614,12 +18614,135 @@
     </r>
   </si>
   <si>
+    <t>Anticipation</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
     <t>Bash</t>
   </si>
   <si>
-    <t>Defence</t>
-  </si>
-  <si>
     <t>shield</t>
   </si>
   <si>
@@ -18685,6 +18808,129 @@
         <sz val="10.0"/>
       </rPr>
       <t>0,2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -18945,7 +19191,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -18989,10 +19235,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -19242,7 +19491,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A100:AM102" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A100:AM101" displayName="Table_3" id="3">
   <tableColumns count="39">
     <tableColumn name="Name" id="1"/>
     <tableColumn name="Revolution" id="2"/>
@@ -31828,174 +32077,174 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="B101" s="19" t="b">
+      <c r="B101" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="D101" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="E101" s="19" t="s">
+      <c r="D101" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="E101" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" s="19">
-        <v>15.0</v>
-      </c>
-      <c r="H101" s="19" t="s">
+      <c r="F101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="I101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="K101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="L101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="N101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R101" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="I101" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="J101" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="K101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="M101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="O101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="P101" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="R101" s="20" t="s">
+      <c r="S101" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="S101" s="20" t="s">
+      <c r="T101" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="T101" s="20" t="s">
+      <c r="U101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X101" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="U101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="V101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="W101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X101" s="20" t="s">
+      <c r="Y101" s="20" t="s">
         <v>774</v>
       </c>
-      <c r="Y101" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AB101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AC101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AE101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AG101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AI101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AK101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AL101" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM101" s="19" t="b">
+      <c r="Z101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AB101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AE101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AG101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AI101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AK101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AL101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM101" s="20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="B102" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D102" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" s="20">
+        <v>15.0</v>
+      </c>
+      <c r="H102" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="B102" s="19" t="b">
+      <c r="I102" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J102" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="K102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="L102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="N102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P102" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C102" s="19" t="s">
-        <v>769</v>
-      </c>
-      <c r="D102" s="19">
-        <v>55.0</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I102" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="J102" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="K102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="M102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="O102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="P102" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="19" t="b">
+      <c r="Q102" s="20" t="b">
         <v>0</v>
       </c>
       <c r="R102" s="20" t="s">
@@ -32007,13 +32256,13 @@
       <c r="T102" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="U102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="V102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="W102" s="19" t="b">
+      <c r="U102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W102" s="20" t="b">
         <v>0</v>
       </c>
       <c r="X102" s="20" t="s">
@@ -32022,46 +32271,284 @@
       <c r="Y102" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="Z102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AB102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AC102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AE102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AG102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AI102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AK102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AL102" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM102" s="19" t="b">
+      <c r="Z102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AB102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AE102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AG102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AI102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AK102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AL102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM102" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B103" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="D103" s="21">
+        <v>34.0</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="21">
+        <v>30.0</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="I103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="L103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="M103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="N103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="S103" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="T103" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="U103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="W103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X103" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y103" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="Z103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AB103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AC103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AE103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AG103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AI103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AK103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AL103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM103" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="B104" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D104" s="20">
+        <v>55.0</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I104" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J104" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="K104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="L104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="N104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P104" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R104" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="S104" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="T104" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="U104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="W104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X104" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y104" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AB104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AC104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AE104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AG104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AI104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AK104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="AL104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="20" t="b">
         <v>0</v>
       </c>
     </row>
